--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.157268</v>
+        <v>0.4128076666666667</v>
       </c>
       <c r="H2">
-        <v>3.471804</v>
+        <v>1.238423</v>
       </c>
       <c r="I2">
-        <v>0.003820768222310022</v>
+        <v>0.001366259689176221</v>
       </c>
       <c r="J2">
-        <v>0.003820768222310022</v>
+        <v>0.001366259689176221</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>71.05680966666667</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="N2">
-        <v>213.170429</v>
+        <v>0.017021</v>
       </c>
       <c r="O2">
-        <v>0.9993537943934382</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P2">
-        <v>0.9993537943934382</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q2">
-        <v>82.23177200932399</v>
+        <v>0.002342133098111111</v>
       </c>
       <c r="R2">
-        <v>740.085948083916</v>
+        <v>0.021079197883</v>
       </c>
       <c r="S2">
-        <v>0.003818299220463392</v>
+        <v>0.0001687096449493871</v>
       </c>
       <c r="T2">
-        <v>0.003818299220463392</v>
+        <v>0.0001687096449493871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.157268</v>
+        <v>0.4128076666666667</v>
       </c>
       <c r="H3">
-        <v>3.471804</v>
+        <v>1.238423</v>
       </c>
       <c r="I3">
-        <v>0.003820768222310022</v>
+        <v>0.001366259689176221</v>
       </c>
       <c r="J3">
-        <v>0.003820768222310022</v>
+        <v>0.001366259689176221</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.005673666666666667</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N3">
-        <v>0.017021</v>
+        <v>0.12082</v>
       </c>
       <c r="O3">
-        <v>7.979531220238203E-05</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P3">
-        <v>7.979531220238202E-05</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q3">
-        <v>0.006565952876000001</v>
+        <v>0.01662514076222222</v>
       </c>
       <c r="R3">
-        <v>0.05909357588400001</v>
+        <v>0.14962626686</v>
       </c>
       <c r="S3">
-        <v>3.048793931521684E-07</v>
+        <v>0.001197550044226834</v>
       </c>
       <c r="T3">
-        <v>3.048793931521683E-07</v>
+        <v>0.001197550044226834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.157268</v>
+        <v>274.2518313333333</v>
       </c>
       <c r="H4">
-        <v>3.471804</v>
+        <v>822.755494</v>
       </c>
       <c r="I4">
-        <v>0.003820768222310022</v>
+        <v>0.90768474543873</v>
       </c>
       <c r="J4">
-        <v>0.003820768222310022</v>
+        <v>0.9076847454387301</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04027333333333333</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="N4">
-        <v>0.12082</v>
+        <v>0.017021</v>
       </c>
       <c r="O4">
-        <v>0.0005664102943594264</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P4">
-        <v>0.0005664102943594264</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q4">
-        <v>0.04660703992</v>
+        <v>1.556013473708222</v>
       </c>
       <c r="R4">
-        <v>0.4194633592800001</v>
+        <v>14.004121263374</v>
       </c>
       <c r="S4">
-        <v>2.164122453477762E-06</v>
+        <v>0.1120835023839977</v>
       </c>
       <c r="T4">
-        <v>2.164122453477762E-06</v>
+        <v>0.1120835023839977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>822.755494</v>
       </c>
       <c r="I5">
-        <v>0.9054537774039616</v>
+        <v>0.90768474543873</v>
       </c>
       <c r="J5">
-        <v>0.9054537774039616</v>
+        <v>0.9076847454387301</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>71.05680966666667</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N5">
-        <v>213.170429</v>
+        <v>0.12082</v>
       </c>
       <c r="O5">
-        <v>0.9993537943934382</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P5">
-        <v>0.9993537943934382</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q5">
-        <v>19487.46017978743</v>
+        <v>11.04503542056444</v>
       </c>
       <c r="R5">
-        <v>175387.1416180869</v>
+        <v>99.40531878508</v>
       </c>
       <c r="S5">
-        <v>0.9048686680965206</v>
+        <v>0.7956012430547323</v>
       </c>
       <c r="T5">
-        <v>0.9048686680965206</v>
+        <v>0.7956012430547325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>274.2518313333333</v>
+        <v>27.47972633333333</v>
       </c>
       <c r="H6">
-        <v>822.755494</v>
+        <v>82.439179</v>
       </c>
       <c r="I6">
-        <v>0.9054537774039616</v>
+        <v>0.09094899487209368</v>
       </c>
       <c r="J6">
-        <v>0.9054537774039616</v>
+        <v>0.09094899487209368</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.017021</v>
       </c>
       <c r="O6">
-        <v>7.979531220238203E-05</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P6">
-        <v>7.979531220238202E-05</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q6">
-        <v>1.556013473708222</v>
+        <v>0.1559108073065556</v>
       </c>
       <c r="R6">
-        <v>14.004121263374</v>
+        <v>1.403197265759</v>
       </c>
       <c r="S6">
-        <v>7.225096685277524E-05</v>
+        <v>0.01123064140363104</v>
       </c>
       <c r="T6">
-        <v>7.225096685277523E-05</v>
+        <v>0.01123064140363104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>274.2518313333333</v>
+        <v>27.47972633333333</v>
       </c>
       <c r="H7">
-        <v>822.755494</v>
+        <v>82.439179</v>
       </c>
       <c r="I7">
-        <v>0.9054537774039616</v>
+        <v>0.09094899487209368</v>
       </c>
       <c r="J7">
-        <v>0.9054537774039616</v>
+        <v>0.09094899487209368</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.12082</v>
       </c>
       <c r="O7">
-        <v>0.0005664102943594264</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P7">
-        <v>0.0005664102943594264</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q7">
-        <v>11.04503542056444</v>
+        <v>1.106700178531111</v>
       </c>
       <c r="R7">
-        <v>99.40531878508001</v>
+        <v>9.96030160678</v>
       </c>
       <c r="S7">
-        <v>0.0005128583405882325</v>
+        <v>0.07971835346846264</v>
       </c>
       <c r="T7">
-        <v>0.0005128583405882325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>27.47972633333333</v>
-      </c>
-      <c r="H8">
-        <v>82.439179</v>
-      </c>
-      <c r="I8">
-        <v>0.09072545437372836</v>
-      </c>
-      <c r="J8">
-        <v>0.09072545437372836</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>71.05680966666667</v>
-      </c>
-      <c r="N8">
-        <v>213.170429</v>
-      </c>
-      <c r="O8">
-        <v>0.9993537943934382</v>
-      </c>
-      <c r="P8">
-        <v>0.9993537943934382</v>
-      </c>
-      <c r="Q8">
-        <v>1952.621683759754</v>
-      </c>
-      <c r="R8">
-        <v>17573.59515383779</v>
-      </c>
-      <c r="S8">
-        <v>0.0906668270764542</v>
-      </c>
-      <c r="T8">
-        <v>0.0906668270764542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>27.47972633333333</v>
-      </c>
-      <c r="H9">
-        <v>82.439179</v>
-      </c>
-      <c r="I9">
-        <v>0.09072545437372836</v>
-      </c>
-      <c r="J9">
-        <v>0.09072545437372836</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.005673666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.017021</v>
-      </c>
-      <c r="O9">
-        <v>7.979531220238203E-05</v>
-      </c>
-      <c r="P9">
-        <v>7.979531220238202E-05</v>
-      </c>
-      <c r="Q9">
-        <v>0.1559108073065556</v>
-      </c>
-      <c r="R9">
-        <v>1.403197265759</v>
-      </c>
-      <c r="S9">
-        <v>7.239465956454622E-06</v>
-      </c>
-      <c r="T9">
-        <v>7.23946595645462E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>27.47972633333333</v>
-      </c>
-      <c r="H10">
-        <v>82.439179</v>
-      </c>
-      <c r="I10">
-        <v>0.09072545437372836</v>
-      </c>
-      <c r="J10">
-        <v>0.09072545437372836</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.04027333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.12082</v>
-      </c>
-      <c r="O10">
-        <v>0.0005664102943594264</v>
-      </c>
-      <c r="P10">
-        <v>0.0005664102943594264</v>
-      </c>
-      <c r="Q10">
-        <v>1.106700178531111</v>
-      </c>
-      <c r="R10">
-        <v>9.96030160678</v>
-      </c>
-      <c r="S10">
-        <v>5.138783131771619E-05</v>
-      </c>
-      <c r="T10">
-        <v>5.138783131771619E-05</v>
+        <v>0.07971835346846265</v>
       </c>
     </row>
   </sheetData>
